--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunar\Desktop\우주비행선\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heuser\Desktop\HybridCore\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="초안" sheetId="3" r:id="rId1"/>
-    <sheet name="개정안" sheetId="5" r:id="rId2"/>
+    <sheet name="Draft(v1.0)" sheetId="3" r:id="rId1"/>
+    <sheet name="Revision(v1.1)" sheetId="5" r:id="rId2"/>
+    <sheet name="Revision(v1.2)" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="79">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,13 +321,17 @@
   </si>
   <si>
     <t>MOVI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,7 +604,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,13 +903,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
@@ -925,20 +936,20 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="H2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -962,20 +973,20 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21" t="s">
+      <c r="H3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -999,20 +1010,20 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21" t="s">
+      <c r="H4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1036,20 +1047,20 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21" t="s">
+      <c r="H5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -1073,20 +1084,20 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21" t="s">
+      <c r="H6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1110,20 +1121,20 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21" t="s">
+      <c r="H7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1147,20 +1158,20 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21" t="s">
+      <c r="H8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1184,20 +1195,20 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21" t="s">
+      <c r="H9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1221,13 +1232,13 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="H10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1256,20 +1267,20 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21" t="s">
+      <c r="H11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1293,20 +1304,20 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21" t="s">
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1330,20 +1341,20 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21" t="s">
+      <c r="H13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1367,20 +1378,20 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21" t="s">
+      <c r="H14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1404,20 +1415,20 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21" t="s">
+      <c r="H15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -1441,20 +1452,20 @@
       <c r="G16" s="18">
         <v>1</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21" t="s">
+      <c r="H16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1478,20 +1489,20 @@
       <c r="G17" s="19">
         <v>1</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21" t="s">
+      <c r="H17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1515,20 +1526,20 @@
       <c r="G18" s="19">
         <v>1</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21" t="s">
+      <c r="H18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -1552,20 +1563,20 @@
       <c r="G19" s="19">
         <v>1</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21" t="s">
+      <c r="H19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -1589,20 +1600,20 @@
       <c r="G20" s="19">
         <v>1</v>
       </c>
-      <c r="H20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21" t="s">
+      <c r="H20" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1626,20 +1637,20 @@
       <c r="G21" s="19">
         <v>1</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21" t="s">
+      <c r="H21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1663,20 +1674,20 @@
       <c r="G22" s="19">
         <v>1</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21" t="s">
+      <c r="H22" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -1700,20 +1711,20 @@
       <c r="G23" s="19">
         <v>1</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21" t="s">
+      <c r="H23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1737,20 +1748,20 @@
       <c r="G24" s="19">
         <v>1</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21" t="s">
+      <c r="H24" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1774,20 +1785,20 @@
       <c r="G25" s="19">
         <v>1</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21" t="s">
+      <c r="H25" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -1811,20 +1822,20 @@
       <c r="G26" s="19">
         <v>1</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21" t="s">
+      <c r="H26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -1848,20 +1859,20 @@
       <c r="G27" s="19">
         <v>1</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21" t="s">
+      <c r="H27" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -1885,20 +1896,20 @@
       <c r="G28" s="20">
         <v>1</v>
       </c>
-      <c r="H28" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21" t="s">
+      <c r="H28" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1920,20 +1931,20 @@
         <v>0</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21" t="s">
+      <c r="H29" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -1955,20 +1966,20 @@
         <v>1</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21" t="s">
+      <c r="H30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -1990,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="H31" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1">
         <v>0</v>
@@ -2031,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
+      <c r="H32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1">
         <v>0</v>
@@ -2072,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="H33" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1">
         <v>0</v>
@@ -2113,13 +2124,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="H34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1">
         <v>1</v>
@@ -2154,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
+      <c r="H35" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1">
         <v>1</v>
@@ -2195,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
+      <c r="H36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1">
         <v>1</v>
@@ -2236,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
+      <c r="H37" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1">
         <v>1</v>
@@ -2277,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
+      <c r="H38" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1">
         <v>1</v>
@@ -2318,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
+      <c r="H39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1">
         <v>1</v>
@@ -2359,13 +2370,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
+      <c r="H40" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1">
         <v>1</v>
@@ -2400,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
+      <c r="H41" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4">
         <v>1</v>
@@ -2446,13 +2457,13 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="21" t="s">
+      <c r="M42" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
@@ -2474,13 +2485,13 @@
         <v>1</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
+      <c r="H43" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2512,13 +2523,13 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="21" t="s">
+      <c r="M44" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
@@ -2540,13 +2551,13 @@
         <v>1</v>
       </c>
       <c r="G45" s="3"/>
-      <c r="H45" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
+      <c r="H45" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2573,18 +2584,18 @@
         <v>0</v>
       </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="21" t="s">
+      <c r="M46" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
@@ -2642,13 +2653,13 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="21" t="s">
+      <c r="M48" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
@@ -2683,58 +2694,12 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="M46:Q46"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M27:Q27"/>
     <mergeCell ref="M44:Q44"/>
     <mergeCell ref="M17:Q17"/>
     <mergeCell ref="M11:Q11"/>
@@ -2751,14 +2716,60 @@
     <mergeCell ref="M23:Q23"/>
     <mergeCell ref="M22:Q22"/>
     <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M13:Q13"/>
     <mergeCell ref="M14:Q14"/>
     <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2766,6 +2777,2179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="9" style="23"/>
+    <col min="7" max="7" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="20">
+        <v>1</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="15">
+        <v>1</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="15">
+        <v>1</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="12">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="12">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="12">
+        <v>0</v>
+      </c>
+      <c r="O39" s="13">
+        <v>0</v>
+      </c>
+      <c r="P39" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="12">
+        <v>1</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="12">
+        <v>0</v>
+      </c>
+      <c r="O40" s="13">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="12">
+        <v>1</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="12">
+        <v>1</v>
+      </c>
+      <c r="O41" s="13">
+        <v>0</v>
+      </c>
+      <c r="P41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="12">
+        <v>1</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="12">
+        <v>1</v>
+      </c>
+      <c r="O42" s="13">
+        <v>0</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="12">
+        <v>1</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="12">
+        <v>1</v>
+      </c>
+      <c r="O43" s="13">
+        <v>0</v>
+      </c>
+      <c r="P43" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="12">
+        <v>1</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="12">
+        <v>1</v>
+      </c>
+      <c r="O44" s="13">
+        <v>0</v>
+      </c>
+      <c r="P44" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="12">
+        <v>1</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="12">
+        <v>1</v>
+      </c>
+      <c r="O45" s="13">
+        <v>1</v>
+      </c>
+      <c r="P45" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="12">
+        <v>1</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0</v>
+      </c>
+      <c r="D46" s="14">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="12">
+        <v>1</v>
+      </c>
+      <c r="O46" s="13">
+        <v>1</v>
+      </c>
+      <c r="P46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="12">
+        <v>1</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="12">
+        <v>1</v>
+      </c>
+      <c r="O47" s="13">
+        <v>1</v>
+      </c>
+      <c r="P47" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="12">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0</v>
+      </c>
+      <c r="D48" s="14">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="15">
+        <v>1</v>
+      </c>
+      <c r="O48" s="16">
+        <v>1</v>
+      </c>
+      <c r="P48" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+      <c r="C49" s="10">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="15">
+        <v>1</v>
+      </c>
+      <c r="C50" s="16">
+        <v>1</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="17">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="15">
+        <v>1</v>
+      </c>
+      <c r="C52" s="16">
+        <v>1</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="15">
+        <v>1</v>
+      </c>
+      <c r="C54" s="16">
+        <v>1</v>
+      </c>
+      <c r="D54" s="16">
+        <v>1</v>
+      </c>
+      <c r="E54" s="17">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="M55:Q55"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
@@ -2823,20 +5007,20 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="H2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -2860,20 +5044,20 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21" t="s">
+      <c r="H3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -2897,20 +5081,20 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21" t="s">
+      <c r="H4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
@@ -2934,20 +5118,20 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21" t="s">
+      <c r="H5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -2971,20 +5155,20 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21" t="s">
+      <c r="H6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -3008,24 +5192,24 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21" t="s">
+      <c r="H7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
@@ -3045,20 +5229,20 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21" t="s">
+      <c r="H8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
@@ -3082,20 +5266,20 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21" t="s">
+      <c r="H9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -3119,20 +5303,20 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21" t="s">
+      <c r="H10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
@@ -3156,20 +5340,20 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21" t="s">
+      <c r="H11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
@@ -3193,20 +5377,20 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21" t="s">
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -3230,20 +5414,20 @@
       <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21" t="s">
+      <c r="H13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
@@ -3267,24 +5451,24 @@
       <c r="G14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21" t="s">
+      <c r="H14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
@@ -3304,20 +5488,20 @@
       <c r="G15" s="4">
         <v>0</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21" t="s">
+      <c r="H15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -3341,20 +5525,20 @@
       <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21" t="s">
+      <c r="H16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -3378,20 +5562,20 @@
       <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21" t="s">
+      <c r="H17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
@@ -3415,20 +5599,20 @@
       <c r="G18" s="18">
         <v>1</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="21" t="s">
+      <c r="H18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
@@ -3452,20 +5636,20 @@
       <c r="G19" s="19">
         <v>1</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="21" t="s">
+      <c r="H19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
@@ -3489,20 +5673,20 @@
       <c r="G20" s="19">
         <v>1</v>
       </c>
-      <c r="H20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="21" t="s">
+      <c r="H20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
@@ -3526,20 +5710,20 @@
       <c r="G21" s="19">
         <v>1</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="21" t="s">
+      <c r="H21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
@@ -3563,20 +5747,20 @@
       <c r="G22" s="19">
         <v>1</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="21" t="s">
+      <c r="H22" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
@@ -3600,20 +5784,20 @@
       <c r="G23" s="19">
         <v>1</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21" t="s">
+      <c r="H23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -3637,20 +5821,20 @@
       <c r="G24" s="19">
         <v>1</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21" t="s">
+      <c r="H24" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
@@ -3674,20 +5858,20 @@
       <c r="G25" s="19">
         <v>1</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21" t="s">
+      <c r="H25" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
@@ -3711,20 +5895,20 @@
       <c r="G26" s="19">
         <v>1</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21" t="s">
+      <c r="H26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
@@ -3748,20 +5932,20 @@
       <c r="G27" s="19">
         <v>1</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21" t="s">
+      <c r="H27" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
@@ -3785,20 +5969,20 @@
       <c r="G28" s="19">
         <v>1</v>
       </c>
-      <c r="H28" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21" t="s">
+      <c r="H28" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
@@ -3822,20 +6006,20 @@
       <c r="G29" s="19">
         <v>1</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21" t="s">
+      <c r="H29" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
@@ -3859,20 +6043,20 @@
       <c r="G30" s="19">
         <v>1</v>
       </c>
-      <c r="H30" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21" t="s">
+      <c r="H30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
@@ -3896,20 +6080,20 @@
       <c r="G31" s="19">
         <v>1</v>
       </c>
-      <c r="H31" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21" t="s">
+      <c r="H31" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
@@ -3933,20 +6117,20 @@
       <c r="G32" s="19">
         <v>1</v>
       </c>
-      <c r="H32" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21" t="s">
+      <c r="H32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
@@ -3970,24 +6154,24 @@
       <c r="G33" s="20">
         <v>1</v>
       </c>
-      <c r="H33" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21" t="s">
+      <c r="H33" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B34" s="9">
         <v>1</v>
@@ -4007,24 +6191,24 @@
       <c r="G34" s="4">
         <v>0</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21" t="s">
+      <c r="H34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="B35" s="15">
         <v>1</v>
@@ -4044,20 +6228,20 @@
       <c r="G35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21" t="s">
+      <c r="H35" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
@@ -4079,20 +6263,20 @@
         <v>0</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21" t="s">
+      <c r="H36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
@@ -4114,197 +6298,165 @@
         <v>1</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21" t="s">
+      <c r="H37" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="12">
-        <v>1</v>
-      </c>
-      <c r="C38" s="13">
-        <v>0</v>
-      </c>
-      <c r="D38" s="14">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
+        <v>26</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11">
         <v>0</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-      <c r="O38" s="10">
-        <v>0</v>
-      </c>
-      <c r="P38" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="11">
-        <v>0</v>
-      </c>
+      <c r="M38" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="12">
-        <v>1</v>
-      </c>
-      <c r="C39" s="13">
-        <v>0</v>
-      </c>
-      <c r="D39" s="14">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="12">
-        <v>0</v>
-      </c>
-      <c r="O39" s="13">
-        <v>0</v>
-      </c>
-      <c r="P39" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="14">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B39" s="15">
+        <v>1</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
+        <v>1</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0</v>
+      </c>
+      <c r="F39" s="21">
+        <v>1</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="12">
-        <v>1</v>
-      </c>
-      <c r="C40" s="13">
-        <v>0</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21">
+        <v>0</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="12">
-        <v>0</v>
-      </c>
-      <c r="O40" s="13">
-        <v>0</v>
-      </c>
-      <c r="P40" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="14">
-        <v>1</v>
-      </c>
+      <c r="M40" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="12">
-        <v>1</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0</v>
-      </c>
-      <c r="D41" s="14">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="12">
-        <v>1</v>
-      </c>
-      <c r="O41" s="13">
-        <v>0</v>
-      </c>
-      <c r="P41" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="14">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B41" s="15">
+        <v>1</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1</v>
+      </c>
+      <c r="E41" s="17">
+        <v>1</v>
+      </c>
+      <c r="F41" s="21">
+        <v>1</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B42" s="12">
         <v>1</v>
       </c>
       <c r="C42" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -4312,40 +6464,40 @@
       <c r="F42" s="4">
         <v>0</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="12">
-        <v>1</v>
-      </c>
-      <c r="O42" s="13">
-        <v>0</v>
-      </c>
-      <c r="P42" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="14">
-        <v>1</v>
+      <c r="G42" s="21"/>
+      <c r="H42" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B43" s="12">
         <v>1</v>
       </c>
       <c r="C43" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -4353,17 +6505,17 @@
       <c r="F43" s="4">
         <v>0</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="2"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="21"/>
       <c r="N43" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="13">
         <v>0</v>
@@ -4377,16 +6529,16 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B44" s="12">
         <v>1</v>
       </c>
       <c r="C44" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -4394,17 +6546,17 @@
       <c r="F44" s="4">
         <v>0</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="2"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="21"/>
       <c r="N44" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="13">
         <v>0</v>
@@ -4418,16 +6570,16 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B45" s="12">
         <v>1</v>
       </c>
       <c r="C45" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -4435,20 +6587,20 @@
       <c r="F45" s="4">
         <v>0</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="2"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="21"/>
       <c r="N45" s="12">
         <v>1</v>
       </c>
       <c r="O45" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="13">
         <v>0</v>
@@ -4459,16 +6611,16 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B46" s="12">
         <v>1</v>
       </c>
       <c r="C46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -4476,20 +6628,20 @@
       <c r="F46" s="4">
         <v>0</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="2"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="21"/>
       <c r="N46" s="12">
         <v>1</v>
       </c>
       <c r="O46" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="13">
         <v>0</v>
@@ -4500,16 +6652,16 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B47" s="12">
         <v>1</v>
       </c>
       <c r="C47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -4517,20 +6669,20 @@
       <c r="F47" s="4">
         <v>0</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="2"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="21"/>
       <c r="N47" s="12">
         <v>1</v>
       </c>
       <c r="O47" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="13">
         <v>1</v>
@@ -4541,16 +6693,16 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B48" s="12">
         <v>1</v>
       </c>
       <c r="C48" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -4558,163 +6710,195 @@
       <c r="F48" s="4">
         <v>0</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="15">
-        <v>1</v>
-      </c>
-      <c r="O48" s="16">
-        <v>1</v>
-      </c>
-      <c r="P48" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="17">
+      <c r="G48" s="21"/>
+      <c r="H48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="12">
+        <v>1</v>
+      </c>
+      <c r="O48" s="13">
+        <v>0</v>
+      </c>
+      <c r="P48" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="10">
-        <v>1</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
+        <v>24</v>
+      </c>
+      <c r="B49" s="12">
+        <v>1</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
         <v>0</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="12">
+        <v>1</v>
+      </c>
+      <c r="O49" s="13">
+        <v>1</v>
+      </c>
+      <c r="P49" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="15">
-        <v>1</v>
-      </c>
-      <c r="C50" s="16">
-        <v>1</v>
-      </c>
-      <c r="D50" s="16">
-        <v>0</v>
-      </c>
-      <c r="E50" s="17">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B50" s="12">
+        <v>1</v>
+      </c>
+      <c r="C50" s="13">
+        <v>1</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="12">
+        <v>1</v>
+      </c>
+      <c r="O50" s="13">
+        <v>1</v>
+      </c>
+      <c r="P50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-      <c r="C51" s="10">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="11">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="B51" s="12">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="21"/>
+      <c r="H51" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="12">
+        <v>1</v>
+      </c>
+      <c r="O51" s="13">
+        <v>1</v>
+      </c>
+      <c r="P51" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="15">
-        <v>1</v>
-      </c>
-      <c r="C52" s="16">
-        <v>1</v>
-      </c>
-      <c r="D52" s="16">
-        <v>0</v>
-      </c>
-      <c r="E52" s="17">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2">
-        <v>1</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B52" s="12">
+        <v>1</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="22"/>
+      <c r="H52" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="15">
+        <v>1</v>
+      </c>
+      <c r="O52" s="16">
+        <v>1</v>
+      </c>
+      <c r="P52" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B53" s="9">
         <v>1</v>
@@ -4723,27 +6907,27 @@
         <v>1</v>
       </c>
       <c r="D53" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="11">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="21">
+        <v>0</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
@@ -4756,25 +6940,25 @@
         <v>1</v>
       </c>
       <c r="D54" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="17">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2">
-        <v>1</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="21">
+        <v>1</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -4790,24 +6974,24 @@
         <v>1</v>
       </c>
       <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="21">
+        <v>0</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
@@ -4825,60 +7009,59 @@
       <c r="E56" s="4">
         <v>1</v>
       </c>
-      <c r="F56" s="2">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
+      <c r="F56" s="21">
+        <v>1</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H51:L51"/>
     <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="M40:Q40"/>
+    <mergeCell ref="H41:L41"/>
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="M53:Q53"/>
     <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H42:L42"/>
     <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H45:L45"/>
     <mergeCell ref="H46:L46"/>
     <mergeCell ref="H47:L47"/>
     <mergeCell ref="H48:L48"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="H42:L42"/>
     <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="M33:Q33"/>
     <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="M34:Q34"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="M29:Q29"/>
     <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:Q30"/>
     <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="M31:Q31"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="M26:Q26"/>
     <mergeCell ref="H27:L27"/>
@@ -4897,29 +7080,30 @@
     <mergeCell ref="M21:Q21"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="M17:Q17"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="M18:Q18"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:Q14"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="M15:Q15"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="M11:Q11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="M12:Q12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="M14:Q14"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="M9:Q9"/>
     <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="M10:Q10"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="M5:Q5"/>
     <mergeCell ref="H6:L6"/>
@@ -4935,5 +7119,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>